--- a/data/TBO_pathogenicity.xlsx
+++ b/data/TBO_pathogenicity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whalendillon/SERDP_Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whalendillon/Projects/SERDP_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE628251-820C-2342-BA4B-A636FB81CE29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD69DAEA-FA05-454C-814B-93C8B040334A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28880" yWindow="-2700" windowWidth="74460" windowHeight="32180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22400" yWindow="-28340" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="118">
   <si>
     <t>PATHOGEN NAME</t>
   </si>
@@ -760,10 +760,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1263,6 +1263,12 @@
       <c r="A20" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>112</v>
       </c>
